--- a/results/gru/corona/confidence/topk/sum_scores.xlsx
+++ b/results/gru/corona/confidence/topk/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="357">
   <si>
     <t>negative</t>
   </si>
@@ -52,985 +52,1039 @@
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>anxiety</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>idiot</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>charged</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>scared</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>mis</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>cuts</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>starvation</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>beginning</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>bitch</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>alleged</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>damn</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>arrest</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>miners</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>ill</t>
   </si>
   <si>
     <t>shortages</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>infected</t>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>covered</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>losses</t>
+  </si>
+  <si>
+    <t>threaten</t>
+  </si>
+  <si>
+    <t>terrorist</t>
+  </si>
+  <si>
+    <t>charges</t>
+  </si>
+  <si>
+    <t>devastating</t>
+  </si>
+  <si>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>slap</t>
+  </si>
+  <si>
+    <t>terror</t>
+  </si>
+  <si>
+    <t>suicide</t>
+  </si>
+  <si>
+    <t>wr</t>
+  </si>
+  <si>
+    <t>havoc</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>japan</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>these</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>confinement</t>
+  </si>
+  <si>
+    <t>steal</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>stealing</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>fiber</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>fool</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>denies</t>
+  </si>
+  <si>
+    <t>allegations</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>dumped</t>
+  </si>
+  <si>
+    <t>digging</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>mayhem</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>tb</t>
+  </si>
+  <si>
+    <t>buyers</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>regarding</t>
+  </si>
+  <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>germany</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>dragged</t>
+  </si>
+  <si>
+    <t>smuggling</t>
+  </si>
+  <si>
+    <t>alarm</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>dump</t>
+  </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>hoax</t>
+  </si>
+  <si>
+    <t>kuwait</t>
+  </si>
+  <si>
+    <t>sucks</t>
+  </si>
+  <si>
+    <t>poverty</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>abuse</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>govt</t>
+  </si>
+  <si>
+    <t>mor</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>halt</t>
+  </si>
+  <si>
+    <t>president</t>
+  </si>
+  <si>
+    <t>kenya</t>
+  </si>
+  <si>
+    <t>im</t>
+  </si>
+  <si>
+    <t>practices</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>hunger</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>struggles</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>weeks</t>
+  </si>
+  <si>
+    <t>fraudulent</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>uncertain</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>call</t>
   </si>
   <si>
     <t>complaints</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>charged</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>starvation</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>rs</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>cuts</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>idiot</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>bitch</t>
-  </si>
-  <si>
-    <t>ass</t>
-  </si>
-  <si>
-    <t>stolen</t>
-  </si>
-  <si>
-    <t>about</t>
-  </si>
-  <si>
-    <t>cu</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>terror</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>goods</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>worried</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>louis</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>generous</t>
+  </si>
+  <si>
+    <t>crisp</t>
+  </si>
+  <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>clever</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>remember</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>paisley</t>
+  </si>
+  <si>
+    <t>praise</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>neighbors</t>
+  </si>
+  <si>
+    <t>yeah</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>approval</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>civic</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>ill</t>
-  </si>
-  <si>
-    <t>govt</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>miners</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>halt</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>vegetables</t>
-  </si>
-  <si>
-    <t>milk</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>roll</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>'</t>
-  </si>
-  <si>
-    <t>re</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>covered</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>threaten</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>how</t>
-  </si>
-  <si>
-    <t>suicide</t>
-  </si>
-  <si>
-    <t>trader</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>pollution</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>wr</t>
-  </si>
-  <si>
-    <t>havoc</t>
-  </si>
-  <si>
-    <t>there</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>japan</t>
-  </si>
-  <si>
-    <t>terrorist</t>
-  </si>
-  <si>
-    <t>charges</t>
-  </si>
-  <si>
-    <t>devastating</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>apocalyptic</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>spot</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>dec</t>
-  </si>
-  <si>
-    <t>claim</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>doing</t>
-  </si>
-  <si>
-    <t>steal</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>confinement</t>
-  </si>
-  <si>
-    <t>slap</t>
-  </si>
-  <si>
-    <t>alleged</t>
-  </si>
-  <si>
-    <t>denies</t>
-  </si>
-  <si>
-    <t>allegations</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>shoot</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>grip</t>
-  </si>
-  <si>
-    <t>stealing</t>
-  </si>
-  <si>
-    <t>victim</t>
-  </si>
-  <si>
-    <t>rama</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>buyers</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>blaming</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>why</t>
-  </si>
-  <si>
-    <t>fiber</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>vega</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>arrest</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>prohibits</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>dragged</t>
-  </si>
-  <si>
-    <t>hoax</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>regarding</t>
-  </si>
-  <si>
-    <t>visit</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>jobs</t>
-  </si>
-  <si>
-    <t>severe</t>
-  </si>
-  <si>
-    <t>wipe</t>
-  </si>
-  <si>
-    <t>spreads</t>
-  </si>
-  <si>
-    <t>furious</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>totally</t>
-  </si>
-  <si>
-    <t>virus</t>
-  </si>
-  <si>
-    <t>farmers</t>
-  </si>
-  <si>
-    <t>dump</t>
-  </si>
-  <si>
-    <t>restaurant</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>scared</t>
-  </si>
-  <si>
-    <t>indian</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>pakistan</t>
-  </si>
-  <si>
-    <t>ins</t>
-  </si>
-  <si>
-    <t>thailand</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>president</t>
-  </si>
-  <si>
-    <t>im</t>
-  </si>
-  <si>
-    <t>hiking</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>egg</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>mis</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>doctors</t>
+  </si>
+  <si>
+    <t>nurses</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>tx</t>
+  </si>
+  <si>
+    <t>improve</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>brad</t>
+  </si>
+  <si>
+    <t>novel</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>united</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>trip</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>creating</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>popular</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>laugh</t>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>benefits</t>
   </si>
   <si>
     <t>proud</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>generous</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>vital</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>praise</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>prepared</t>
-  </si>
-  <si>
-    <t>approval</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>surface</t>
-  </si>
-  <si>
-    <t>lucky</t>
-  </si>
-  <si>
-    <t>civic</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>doctors</t>
-  </si>
-  <si>
-    <t>nurses</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>tx</t>
-  </si>
-  <si>
-    <t>accept</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>rescue</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>united</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>my</t>
-  </si>
-  <si>
-    <t>seniors</t>
+    <t>brilliant</t>
   </si>
   <si>
     <t>grateful</t>
   </si>
   <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>benefits</t>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>appreciation</t>
   </si>
   <si>
     <t>advantage</t>
   </si>
   <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>comfort</t>
   </si>
   <si>
     <t>calm</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>ha</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q217"/>
+  <dimension ref="A1:Q226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1457,7 +1511,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1296791443850267</v>
+        <v>0.1347222222222222</v>
       </c>
       <c r="C3">
         <v>97</v>
@@ -1478,16 +1532,16 @@
         <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="K3">
-        <v>0.1204516938519448</v>
+        <v>0.0896551724137931</v>
       </c>
       <c r="L3">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="M3">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1499,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>117</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1507,13 +1561,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.1056149732620321</v>
+        <v>0.1</v>
       </c>
       <c r="C4">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D4">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1525,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="K4">
-        <v>0.06273525721455459</v>
+        <v>0.06482758620689655</v>
       </c>
       <c r="L4">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1549,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1557,13 +1611,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.05748663101604278</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="C5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1575,13 +1629,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="K5">
-        <v>0.05018820577164367</v>
+        <v>0.05517241379310345</v>
       </c>
       <c r="L5">
         <v>40</v>
@@ -1607,13 +1661,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1625,19 +1679,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="K6">
-        <v>0.04893350062735257</v>
+        <v>0.04827586206896552</v>
       </c>
       <c r="L6">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M6">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1649,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1657,13 +1711,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.01871657754010695</v>
+        <v>0.01805555555555555</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1675,19 +1729,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="K7">
-        <v>0.04391468005018821</v>
+        <v>0.04413793103448276</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1699,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>23</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1707,7 +1761,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.01737967914438503</v>
+        <v>0.01805555555555555</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -1725,19 +1779,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="K8">
-        <v>0.04391468005018821</v>
+        <v>0.04137931034482759</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1749,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1757,37 +1811,37 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.01737967914438503</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>13</v>
       </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>20</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="K9">
-        <v>0.04391468005018821</v>
+        <v>0.03862068965517242</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1799,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>109</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1807,13 +1861,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.0160427807486631</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1825,13 +1879,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="K10">
-        <v>0.03262233375156838</v>
+        <v>0.03586206896551724</v>
       </c>
       <c r="L10">
         <v>26</v>
@@ -1849,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1857,13 +1911,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01470588235294118</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1875,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K11">
-        <v>0.03136762860727729</v>
+        <v>0.03310344827586207</v>
       </c>
       <c r="L11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1899,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1907,13 +1961,13 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01470588235294118</v>
+        <v>0.0125</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1925,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="K12">
-        <v>0.0301129234629862</v>
+        <v>0.0303448275862069</v>
       </c>
       <c r="L12">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1949,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1957,13 +2011,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.01470588235294118</v>
+        <v>0.0125</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1975,19 +2029,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="K13">
-        <v>0.02760351317440402</v>
+        <v>0.02482758620689655</v>
       </c>
       <c r="L13">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M13">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1999,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2007,13 +2061,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.01336898395721925</v>
+        <v>0.0125</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2025,19 +2079,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="K14">
-        <v>0.02509410288582183</v>
+        <v>0.02482758620689655</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2049,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2057,13 +2111,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.01203208556149733</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2075,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="K15">
-        <v>0.02383939774153074</v>
+        <v>0.02344827586206897</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2099,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2107,13 +2161,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01203208556149733</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2125,19 +2179,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="K16">
-        <v>0.01882057716436637</v>
+        <v>0.01655172413793103</v>
       </c>
       <c r="L16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2149,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2157,13 +2211,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.01203208556149733</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2175,19 +2229,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="K17">
-        <v>0.01882057716436637</v>
+        <v>0.01655172413793103</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2199,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2207,13 +2261,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.0106951871657754</v>
+        <v>0.009722222222222222</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2225,19 +2279,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="K18">
-        <v>0.01756587202007528</v>
+        <v>0.01517241379310345</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2249,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2257,13 +2311,13 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0106951871657754</v>
+        <v>0.009722222222222222</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2275,19 +2329,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="K19">
-        <v>0.01631116687578419</v>
+        <v>0.01517241379310345</v>
       </c>
       <c r="L19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2299,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2307,7 +2361,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.009358288770053475</v>
+        <v>0.009722222222222222</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -2325,19 +2379,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="K20">
-        <v>0.01380175658720201</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2349,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2357,7 +2411,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.009358288770053475</v>
+        <v>0.009722222222222222</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -2375,13 +2429,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K21">
-        <v>0.01254705144291092</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="L21">
         <v>10</v>
@@ -2399,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2407,7 +2461,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.009358288770053475</v>
+        <v>0.009722222222222222</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -2425,19 +2479,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="K22">
-        <v>0.01129234629861983</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2449,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2457,13 +2511,13 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.009358288770053475</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2475,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="K23">
-        <v>0.01003764115432873</v>
+        <v>0.01241379310344828</v>
       </c>
       <c r="L23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2499,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2507,38 +2561,38 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.009358288770053475</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K24">
+        <v>0.009655172413793104</v>
+      </c>
+      <c r="L24">
         <v>7</v>
       </c>
-      <c r="D24">
+      <c r="M24">
         <v>7</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K24">
-        <v>0.01003764115432873</v>
-      </c>
-      <c r="L24">
-        <v>8</v>
-      </c>
-      <c r="M24">
-        <v>8</v>
-      </c>
       <c r="N24">
         <v>0</v>
       </c>
@@ -2549,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2557,13 +2611,13 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.009358288770053475</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2575,13 +2629,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="K25">
-        <v>0.008782936010037641</v>
+        <v>0.009655172413793104</v>
       </c>
       <c r="L25">
         <v>7</v>
@@ -2599,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2607,13 +2661,13 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.008021390374331552</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2625,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="K26">
-        <v>0.008782936010037641</v>
+        <v>0.009655172413793104</v>
       </c>
       <c r="L26">
         <v>7</v>
@@ -2649,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2657,49 +2711,49 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.008021390374331552</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27">
+        <v>0.008275862068965517</v>
+      </c>
+      <c r="L27">
         <v>6</v>
       </c>
-      <c r="D27">
+      <c r="M27">
         <v>6</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>6</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="K27">
-        <v>0.008782936010037641</v>
-      </c>
-      <c r="L27">
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>7</v>
-      </c>
-      <c r="M27">
-        <v>7</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2707,38 +2761,38 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.008021390374331552</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K28">
+        <v>0.008275862068965517</v>
+      </c>
+      <c r="L28">
         <v>6</v>
       </c>
-      <c r="D28">
+      <c r="M28">
         <v>6</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>40</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K28">
-        <v>0.008782936010037641</v>
-      </c>
-      <c r="L28">
-        <v>7</v>
-      </c>
-      <c r="M28">
-        <v>7</v>
-      </c>
       <c r="N28">
         <v>0</v>
       </c>
@@ -2749,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2757,7 +2811,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.006684491978609625</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -2775,19 +2829,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>1911</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="K29">
-        <v>0.008782936010037641</v>
+        <v>0.008275862068965517</v>
       </c>
       <c r="L29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2807,7 +2861,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.006684491978609625</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -2825,19 +2879,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K30">
-        <v>0.008782936010037641</v>
+        <v>0.008275862068965517</v>
       </c>
       <c r="L30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2849,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2857,7 +2911,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.006684491978609625</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -2875,31 +2929,31 @@
         <v>0</v>
       </c>
       <c r="H31">
+        <v>21</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K31">
+        <v>0.008275862068965517</v>
+      </c>
+      <c r="L31">
+        <v>6</v>
+      </c>
+      <c r="M31">
+        <v>6</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>3</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="K31">
-        <v>0.008782936010037641</v>
-      </c>
-      <c r="L31">
-        <v>7</v>
-      </c>
-      <c r="M31">
-        <v>7</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2907,7 +2961,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.006684491978609625</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -2925,31 +2979,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="K32">
-        <v>0.007528230865746549</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>6</v>
-      </c>
-      <c r="M32">
-        <v>6</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2957,7 +3011,7 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.006684491978609625</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -2975,19 +3029,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>829</v>
+        <v>12</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="K33">
-        <v>0.007528230865746549</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3007,38 +3061,38 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.006684491978609625</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>11</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K34">
+        <v>0.006896551724137931</v>
+      </c>
+      <c r="L34">
         <v>5</v>
       </c>
-      <c r="D34">
+      <c r="M34">
         <v>5</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>15</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="K34">
-        <v>0.007528230865746549</v>
-      </c>
-      <c r="L34">
-        <v>6</v>
-      </c>
-      <c r="M34">
-        <v>6</v>
-      </c>
       <c r="N34">
         <v>0</v>
       </c>
@@ -3049,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -3057,38 +3111,38 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.006684491978609625</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K35">
+        <v>0.006896551724137931</v>
+      </c>
+      <c r="L35">
         <v>5</v>
       </c>
-      <c r="D35">
+      <c r="M35">
         <v>5</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>4</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K35">
-        <v>0.007528230865746549</v>
-      </c>
-      <c r="L35">
-        <v>6</v>
-      </c>
-      <c r="M35">
-        <v>6</v>
-      </c>
       <c r="N35">
         <v>0</v>
       </c>
@@ -3099,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -3107,37 +3161,37 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.0053475935828877</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="C36">
         <v>4</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>947</v>
+        <v>19</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="K36">
-        <v>0.006273525721455458</v>
+        <v>0.005517241379310344</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3149,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3157,7 +3211,7 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.0053475935828877</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -3175,19 +3229,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="K37">
-        <v>0.006273525721455458</v>
+        <v>0.005517241379310344</v>
       </c>
       <c r="L37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3199,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3207,7 +3261,7 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.0053475935828877</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -3225,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="K38">
-        <v>0.005018820577164366</v>
+        <v>0.005517241379310344</v>
       </c>
       <c r="L38">
         <v>4</v>
@@ -3249,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3257,7 +3311,7 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0053475935828877</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -3275,13 +3329,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1912</v>
+        <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="K39">
-        <v>0.005018820577164366</v>
+        <v>0.005517241379310344</v>
       </c>
       <c r="L39">
         <v>4</v>
@@ -3307,7 +3361,7 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.0053475935828877</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -3325,31 +3379,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>51</v>
+        <v>268</v>
       </c>
       <c r="K40">
-        <v>0.005018820577164366</v>
+        <v>0.005517241379310344</v>
       </c>
       <c r="L40">
         <v>4</v>
       </c>
       <c r="M40">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N40">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>0.5700000000000001</v>
+        <v>1</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>1739</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3357,13 +3411,13 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.0053475935828877</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3375,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="K41">
-        <v>0.005018820577164366</v>
+        <v>0.005517241379310344</v>
       </c>
       <c r="L41">
         <v>4</v>
@@ -3399,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>452</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3407,13 +3461,13 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.0053475935828877</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3425,31 +3479,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>831</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>260</v>
+        <v>118</v>
       </c>
       <c r="K42">
-        <v>0.005018820577164366</v>
+        <v>0.005517241379310344</v>
       </c>
       <c r="L42">
         <v>4</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>129</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3457,38 +3511,38 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.0053475935828877</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K43">
+        <v>0.005517241379310344</v>
+      </c>
+      <c r="L43">
         <v>4</v>
       </c>
-      <c r="D43">
+      <c r="M43">
         <v>4</v>
       </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>6</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K43">
-        <v>0.003764115432873275</v>
-      </c>
-      <c r="L43">
-        <v>3</v>
-      </c>
-      <c r="M43">
-        <v>3</v>
-      </c>
       <c r="N43">
         <v>0</v>
       </c>
@@ -3499,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>10</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3507,7 +3561,7 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>0.004010695187165776</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -3525,19 +3579,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="K44">
-        <v>0.003764115432873275</v>
+        <v>0.005517241379310344</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3549,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3557,37 +3611,37 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0.004010695187165776</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>0.5700000000000001</v>
+        <v>0</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>1739</v>
+        <v>8</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="K45">
-        <v>0.003764115432873275</v>
+        <v>0.005517241379310344</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3599,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3607,7 +3661,7 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0.004010695187165776</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -3625,19 +3679,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>539</v>
+        <v>991</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="K46">
-        <v>0.003764115432873275</v>
+        <v>0.005517241379310344</v>
       </c>
       <c r="L46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3649,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3657,7 +3711,7 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>0.004010695187165776</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -3675,19 +3729,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>991</v>
+        <v>2</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="K47">
-        <v>0.003764115432873275</v>
+        <v>0.005517241379310344</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3699,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3707,7 +3761,7 @@
         <v>54</v>
       </c>
       <c r="B48">
-        <v>0.004010695187165776</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -3725,19 +3779,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="K48">
-        <v>0.003764115432873275</v>
+        <v>0.005517241379310344</v>
       </c>
       <c r="L48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3749,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3757,7 +3811,7 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.004010695187165776</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -3775,13 +3829,13 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="K49">
-        <v>0.003764115432873275</v>
+        <v>0.004137931034482759</v>
       </c>
       <c r="L49">
         <v>3</v>
@@ -3799,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3807,7 +3861,7 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>0.004010695187165776</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -3825,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="K50">
-        <v>0.003764115432873275</v>
+        <v>0.004137931034482759</v>
       </c>
       <c r="L50">
         <v>3</v>
@@ -3849,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3857,7 +3911,7 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>0.004010695187165776</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -3875,13 +3929,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="K51">
-        <v>0.003764115432873275</v>
+        <v>0.004137931034482759</v>
       </c>
       <c r="L51">
         <v>3</v>
@@ -3899,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3907,7 +3961,7 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>0.004010695187165776</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -3925,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="K52">
-        <v>0.003764115432873275</v>
+        <v>0.004137931034482759</v>
       </c>
       <c r="L52">
         <v>3</v>
@@ -3949,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3957,7 +4011,7 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>0.004010695187165776</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -3975,13 +4029,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="K53">
-        <v>0.003764115432873275</v>
+        <v>0.004137931034482759</v>
       </c>
       <c r="L53">
         <v>3</v>
@@ -3999,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -4007,7 +4061,7 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0.004010695187165776</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -4025,13 +4079,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="K54">
-        <v>0.003764115432873275</v>
+        <v>0.004137931034482759</v>
       </c>
       <c r="L54">
         <v>3</v>
@@ -4049,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>4</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -4057,7 +4111,7 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>0.004010695187165776</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -4075,19 +4129,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="K55">
-        <v>0.002509410288582183</v>
+        <v>0.004137931034482759</v>
       </c>
       <c r="L55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -4099,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -4107,7 +4161,7 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>0.004010695187165776</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -4125,31 +4179,31 @@
         <v>0</v>
       </c>
       <c r="H56">
+        <v>7</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K56">
+        <v>0.004137931034482759</v>
+      </c>
+      <c r="L56">
         <v>3</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K56">
-        <v>0.002509410288582183</v>
-      </c>
-      <c r="L56">
-        <v>2</v>
-      </c>
       <c r="M56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N56">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>924</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -4157,7 +4211,7 @@
         <v>63</v>
       </c>
       <c r="B57">
-        <v>0.004010695187165776</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -4175,13 +4229,13 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="K57">
-        <v>0.002509410288582183</v>
+        <v>0.002758620689655172</v>
       </c>
       <c r="L57">
         <v>2</v>
@@ -4199,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -4207,7 +4261,7 @@
         <v>64</v>
       </c>
       <c r="B58">
-        <v>0.004010695187165776</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -4225,13 +4279,13 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="K58">
-        <v>0.002509410288582183</v>
+        <v>0.002758620689655172</v>
       </c>
       <c r="L58">
         <v>2</v>
@@ -4249,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4257,7 +4311,7 @@
         <v>65</v>
       </c>
       <c r="B59">
-        <v>0.004010695187165776</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -4275,13 +4329,13 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="K59">
-        <v>0.002509410288582183</v>
+        <v>0.002758620689655172</v>
       </c>
       <c r="L59">
         <v>2</v>
@@ -4307,7 +4361,7 @@
         <v>66</v>
       </c>
       <c r="B60">
-        <v>0.004010695187165776</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -4325,13 +4379,13 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="K60">
-        <v>0.002509410288582183</v>
+        <v>0.002758620689655172</v>
       </c>
       <c r="L60">
         <v>2</v>
@@ -4349,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4357,7 +4411,7 @@
         <v>67</v>
       </c>
       <c r="B61">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -4375,13 +4429,13 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>442</v>
+        <v>2</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="K61">
-        <v>0.002509410288582183</v>
+        <v>0.002758620689655172</v>
       </c>
       <c r="L61">
         <v>2</v>
@@ -4399,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>4</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4407,7 +4461,7 @@
         <v>68</v>
       </c>
       <c r="B62">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -4425,31 +4479,31 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c r="K62">
-        <v>0.002509410288582183</v>
+        <v>0.002758620689655172</v>
       </c>
       <c r="L62">
         <v>2</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>424</v>
+        <v>949</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4457,31 +4511,31 @@
         <v>69</v>
       </c>
       <c r="B63">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>1120</v>
+        <v>447</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="K63">
-        <v>0.002509410288582183</v>
+        <v>0.002758620689655172</v>
       </c>
       <c r="L63">
         <v>2</v>
@@ -4499,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>112</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4507,49 +4561,49 @@
         <v>70</v>
       </c>
       <c r="B64">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>26</v>
+        <v>949</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="K64">
-        <v>0.002509410288582183</v>
+        <v>0.002758620689655172</v>
       </c>
       <c r="L64">
         <v>2</v>
       </c>
       <c r="M64">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N64">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O64">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>947</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4557,7 +4611,7 @@
         <v>71</v>
       </c>
       <c r="B65">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -4575,13 +4629,13 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="K65">
-        <v>0.002509410288582183</v>
+        <v>0.002758620689655172</v>
       </c>
       <c r="L65">
         <v>2</v>
@@ -4599,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4607,7 +4661,7 @@
         <v>72</v>
       </c>
       <c r="B66">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -4625,13 +4679,13 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="K66">
-        <v>0.002509410288582183</v>
+        <v>0.002758620689655172</v>
       </c>
       <c r="L66">
         <v>2</v>
@@ -4649,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4657,7 +4711,7 @@
         <v>73</v>
       </c>
       <c r="B67">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -4675,19 +4729,19 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>272</v>
+        <v>9</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="K67">
-        <v>0.002509410288582183</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4699,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4707,7 +4761,7 @@
         <v>74</v>
       </c>
       <c r="B68">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -4725,19 +4779,19 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="K68">
-        <v>0.002509410288582183</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4749,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4757,7 +4811,7 @@
         <v>75</v>
       </c>
       <c r="B69">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -4775,19 +4829,19 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>432</v>
+        <v>3</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="K69">
-        <v>0.002509410288582183</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4799,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4807,7 +4861,7 @@
         <v>76</v>
       </c>
       <c r="B70">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -4825,13 +4879,13 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="K70">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -4849,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4857,7 +4911,7 @@
         <v>77</v>
       </c>
       <c r="B71">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -4878,10 +4932,10 @@
         <v>3</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="K71">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -4899,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4907,7 +4961,7 @@
         <v>78</v>
       </c>
       <c r="B72">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -4925,31 +4979,31 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>142</v>
+        <v>298</v>
       </c>
       <c r="K72">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L72">
         <v>1</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N72">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>937</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4957,7 +5011,7 @@
         <v>79</v>
       </c>
       <c r="B73">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -4975,13 +5029,13 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="K73">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -4999,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -5007,7 +5061,7 @@
         <v>80</v>
       </c>
       <c r="B74">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -5025,13 +5079,13 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="K74">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -5049,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -5057,31 +5111,31 @@
         <v>81</v>
       </c>
       <c r="B75">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>15</v>
+        <v>936</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="K75">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -5099,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -5107,31 +5161,31 @@
         <v>82</v>
       </c>
       <c r="B76">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>401</v>
+        <v>1986</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="K76">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -5149,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>271</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -5157,31 +5211,31 @@
         <v>83</v>
       </c>
       <c r="B77">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>1986</v>
+        <v>12</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="K77">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -5199,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -5207,7 +5261,7 @@
         <v>84</v>
       </c>
       <c r="B78">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -5225,31 +5279,31 @@
         <v>0</v>
       </c>
       <c r="H78">
+        <v>136</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K78">
+        <v>0.001379310344827586</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
         <v>3</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="K78">
-        <v>0.001254705144291092</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>1</v>
-      </c>
-      <c r="P78" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -5257,31 +5311,31 @@
         <v>85</v>
       </c>
       <c r="B79">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>925</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="K79">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -5299,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -5307,7 +5361,7 @@
         <v>86</v>
       </c>
       <c r="B80">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -5325,13 +5379,13 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>611</v>
+        <v>3</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="K80">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -5349,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -5357,7 +5411,7 @@
         <v>87</v>
       </c>
       <c r="B81">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -5375,13 +5429,13 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="K81">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -5407,7 +5461,7 @@
         <v>88</v>
       </c>
       <c r="B82">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -5425,13 +5479,13 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="K82">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -5449,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -5457,7 +5511,7 @@
         <v>89</v>
       </c>
       <c r="B83">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -5475,13 +5529,13 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>281</v>
+        <v>5</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="K83">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -5499,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -5507,7 +5561,7 @@
         <v>90</v>
       </c>
       <c r="B84">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -5525,13 +5579,13 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="K84">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L84">
         <v>1</v>
@@ -5549,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -5557,7 +5611,7 @@
         <v>91</v>
       </c>
       <c r="B85">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -5575,31 +5629,31 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>300</v>
+        <v>113</v>
       </c>
       <c r="K85">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L85">
         <v>1</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O85">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
-        <v>13</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -5607,7 +5661,7 @@
         <v>92</v>
       </c>
       <c r="B86">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -5625,31 +5679,31 @@
         <v>0</v>
       </c>
       <c r="H86">
+        <v>143</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K86">
+        <v>0.001379310344827586</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
         <v>5</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K86">
-        <v>0.001254705144291092</v>
-      </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="N86">
-        <v>0</v>
-      </c>
-      <c r="O86">
-        <v>1</v>
-      </c>
-      <c r="P86" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -5657,7 +5711,7 @@
         <v>93</v>
       </c>
       <c r="B87">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -5678,10 +5732,10 @@
         <v>9</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="K87">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -5699,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -5707,7 +5761,7 @@
         <v>94</v>
       </c>
       <c r="B88">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -5725,13 +5779,13 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="K88">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -5749,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -5757,31 +5811,31 @@
         <v>95</v>
       </c>
       <c r="B89">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>407</v>
+        <v>14</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="K89">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -5799,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>1</v>
+        <v>425</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -5807,7 +5861,7 @@
         <v>96</v>
       </c>
       <c r="B90">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -5828,10 +5882,10 @@
         <v>1</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="K90">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L90">
         <v>1</v>
@@ -5849,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>1</v>
+        <v>409</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -5857,7 +5911,7 @@
         <v>97</v>
       </c>
       <c r="B91">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -5875,13 +5929,13 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="K91">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -5899,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -5907,7 +5961,7 @@
         <v>98</v>
       </c>
       <c r="B92">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -5925,31 +5979,31 @@
         <v>0</v>
       </c>
       <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K92">
+        <v>0.001379310344827586</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
         <v>3</v>
       </c>
-      <c r="J92" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K92">
-        <v>0.001254705144291092</v>
-      </c>
-      <c r="L92">
-        <v>1</v>
-      </c>
-      <c r="M92">
-        <v>2</v>
-      </c>
       <c r="N92">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="O92">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>69</v>
+        <v>925</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -5957,7 +6011,7 @@
         <v>99</v>
       </c>
       <c r="B93">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -5975,13 +6029,13 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="K93">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -5999,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -6007,7 +6061,7 @@
         <v>100</v>
       </c>
       <c r="B94">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -6025,31 +6079,31 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>308</v>
+        <v>116</v>
       </c>
       <c r="K94">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L94">
         <v>1</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O94">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
-        <v>35</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -6057,7 +6111,7 @@
         <v>101</v>
       </c>
       <c r="B95">
-        <v>0.00267379679144385</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -6075,31 +6129,31 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="K95">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L95">
         <v>1</v>
       </c>
       <c r="M95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N95">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O95">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>407</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -6107,13 +6161,13 @@
         <v>102</v>
       </c>
       <c r="B96">
-        <v>0.00267379679144385</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -6125,31 +6179,31 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>309</v>
+        <v>112</v>
       </c>
       <c r="K96">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L96">
         <v>1</v>
       </c>
       <c r="M96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N96">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O96">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96">
-        <v>7</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -6157,31 +6211,31 @@
         <v>103</v>
       </c>
       <c r="B97">
-        <v>0.00267379679144385</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>924</v>
+        <v>31</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="K97">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -6199,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -6207,49 +6261,49 @@
         <v>104</v>
       </c>
       <c r="B98">
-        <v>0.00267379679144385</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98">
         <v>2</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>119</v>
+        <v>320</v>
       </c>
       <c r="K98">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L98">
         <v>1</v>
       </c>
       <c r="M98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N98">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O98">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <v>196</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -6257,13 +6311,13 @@
         <v>105</v>
       </c>
       <c r="B99">
-        <v>0.00267379679144385</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -6275,13 +6329,13 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="K99">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -6299,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -6307,7 +6361,7 @@
         <v>106</v>
       </c>
       <c r="B100">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -6325,31 +6379,31 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>69</v>
+        <v>322</v>
       </c>
       <c r="K100">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L100">
         <v>1</v>
       </c>
       <c r="M100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N100">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O100">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>1120</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -6357,7 +6411,7 @@
         <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -6375,13 +6429,13 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="K101">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L101">
         <v>1</v>
@@ -6399,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -6407,31 +6461,31 @@
         <v>108</v>
       </c>
       <c r="B102">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="K102">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L102">
         <v>1</v>
@@ -6457,7 +6511,7 @@
         <v>109</v>
       </c>
       <c r="B103">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -6475,13 +6529,13 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="K103">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L103">
         <v>1</v>
@@ -6499,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -6507,7 +6561,7 @@
         <v>110</v>
       </c>
       <c r="B104">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -6525,13 +6579,13 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>20</v>
+        <v>1563</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="K104">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L104">
         <v>1</v>
@@ -6549,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -6557,7 +6611,7 @@
         <v>111</v>
       </c>
       <c r="B105">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -6575,13 +6629,13 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="K105">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L105">
         <v>1</v>
@@ -6599,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -6607,31 +6661,31 @@
         <v>112</v>
       </c>
       <c r="B106">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>17</v>
+        <v>1121</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="K106">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L106">
         <v>1</v>
@@ -6649,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -6657,31 +6711,31 @@
         <v>113</v>
       </c>
       <c r="B107">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="K107">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L107">
         <v>1</v>
@@ -6699,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -6707,7 +6761,7 @@
         <v>114</v>
       </c>
       <c r="B108">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6725,13 +6779,13 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>1563</v>
+        <v>433</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="K108">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L108">
         <v>1</v>
@@ -6757,7 +6811,7 @@
         <v>115</v>
       </c>
       <c r="B109">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6775,13 +6829,13 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>221</v>
+        <v>62</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="K109">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L109">
         <v>1</v>
@@ -6799,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -6807,49 +6861,49 @@
         <v>116</v>
       </c>
       <c r="B110">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>321</v>
+        <v>104</v>
       </c>
       <c r="K110">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L110">
         <v>1</v>
       </c>
       <c r="M110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O110">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q110">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -6857,7 +6911,7 @@
         <v>117</v>
       </c>
       <c r="B111">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6875,13 +6929,13 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>433</v>
+        <v>87</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="K111">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L111">
         <v>1</v>
@@ -6899,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -6907,31 +6961,31 @@
         <v>118</v>
       </c>
       <c r="B112">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>62</v>
+        <v>1741</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="K112">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L112">
         <v>1</v>
@@ -6949,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -6957,31 +7011,31 @@
         <v>119</v>
       </c>
       <c r="B113">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="K113">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L113">
         <v>1</v>
@@ -6999,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -7007,7 +7061,7 @@
         <v>120</v>
       </c>
       <c r="B114">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -7025,31 +7079,31 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>873</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="K114">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L114">
         <v>1</v>
       </c>
       <c r="M114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N114">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="O114">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q114">
-        <v>10</v>
+        <v>936</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -7057,7 +7111,7 @@
         <v>121</v>
       </c>
       <c r="B115">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -7075,13 +7129,13 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>873</v>
+        <v>1</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="K115">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L115">
         <v>1</v>
@@ -7099,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>188</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -7107,7 +7161,7 @@
         <v>122</v>
       </c>
       <c r="B116">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -7125,13 +7179,13 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="K116">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L116">
         <v>1</v>
@@ -7149,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -7157,7 +7211,7 @@
         <v>123</v>
       </c>
       <c r="B117">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -7175,13 +7229,13 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="K117">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L117">
         <v>1</v>
@@ -7199,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -7207,7 +7261,7 @@
         <v>124</v>
       </c>
       <c r="B118">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -7225,13 +7279,13 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="K118">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L118">
         <v>1</v>
@@ -7257,7 +7311,7 @@
         <v>125</v>
       </c>
       <c r="B119">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -7275,13 +7329,13 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="K119">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L119">
         <v>1</v>
@@ -7299,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -7307,7 +7361,7 @@
         <v>126</v>
       </c>
       <c r="B120">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -7325,13 +7379,13 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="K120">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L120">
         <v>1</v>
@@ -7349,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -7357,7 +7411,7 @@
         <v>127</v>
       </c>
       <c r="B121">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -7375,13 +7429,13 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="K121">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L121">
         <v>1</v>
@@ -7399,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:17">
@@ -7407,7 +7461,7 @@
         <v>128</v>
       </c>
       <c r="B122">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -7425,13 +7479,13 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="K122">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L122">
         <v>1</v>
@@ -7449,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:17">
@@ -7457,7 +7511,7 @@
         <v>129</v>
       </c>
       <c r="B123">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -7475,13 +7529,13 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="K123">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L123">
         <v>1</v>
@@ -7499,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>638</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -7507,7 +7561,7 @@
         <v>130</v>
       </c>
       <c r="B124">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -7525,13 +7579,13 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="K124">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L124">
         <v>1</v>
@@ -7549,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -7557,7 +7611,7 @@
         <v>131</v>
       </c>
       <c r="B125">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -7578,10 +7632,10 @@
         <v>0</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="K125">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L125">
         <v>1</v>
@@ -7599,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -7607,7 +7661,7 @@
         <v>132</v>
       </c>
       <c r="B126">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -7625,31 +7679,31 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>83</v>
+        <v>346</v>
       </c>
       <c r="K126">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L126">
         <v>1</v>
       </c>
       <c r="M126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N126">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O126">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>1986</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -7657,7 +7711,7 @@
         <v>133</v>
       </c>
       <c r="B127">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -7675,13 +7729,13 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="K127">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L127">
         <v>1</v>
@@ -7699,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -7707,7 +7761,7 @@
         <v>134</v>
       </c>
       <c r="B128">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -7725,13 +7779,13 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="K128">
-        <v>0.001254705144291092</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="L128">
         <v>1</v>
@@ -7749,15 +7803,15 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
       <c r="A129" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B129">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -7775,15 +7829,39 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>433</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K129">
+        <v>0.001379310344827586</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
       <c r="A130" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B130">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -7801,15 +7879,39 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="K130">
+        <v>0.001379310344827586</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>1</v>
+      </c>
+      <c r="P130" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
       <c r="A131" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B131">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -7827,15 +7929,39 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="K131">
+        <v>0.001379310344827586</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+      <c r="P131" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
       <c r="A132" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B132">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -7853,15 +7979,39 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K132">
+        <v>0.001379310344827586</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>1</v>
+      </c>
+      <c r="P132" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
       <c r="A133" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B133">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -7879,15 +8029,39 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="K133">
+        <v>0.001379310344827586</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
+      </c>
+      <c r="P133" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
       <c r="A134" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B134">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -7905,15 +8079,39 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="K134">
+        <v>0.001379310344827586</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>1</v>
+      </c>
+      <c r="P134" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
       <c r="A135" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B135">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -7931,41 +8129,89 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>353</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K135">
+        <v>0.001379310344827586</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>3</v>
+      </c>
+      <c r="N135">
+        <v>0.67</v>
+      </c>
+      <c r="O135">
+        <v>0.33</v>
+      </c>
+      <c r="P135" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q135">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
       <c r="A136" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B136">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K136">
+        <v>0.001379310344827586</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>1</v>
+      </c>
+      <c r="P136" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
       <c r="A137" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B137">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -7983,15 +8229,39 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K137">
+        <v>0.001379310344827586</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>1</v>
+      </c>
+      <c r="P137" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
       <c r="A138" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B138">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -8009,15 +8279,15 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
       <c r="A139" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B139">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -8035,15 +8305,15 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
       <c r="A140" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B140">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -8061,15 +8331,15 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
       <c r="A141" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B141">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -8087,15 +8357,15 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
       <c r="A142" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B142">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -8113,15 +8383,15 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
       <c r="A143" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B143">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -8139,15 +8409,15 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
       <c r="A144" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B144">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -8165,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>6</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -8173,7 +8443,7 @@
         <v>151</v>
       </c>
       <c r="B145">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -8199,7 +8469,7 @@
         <v>152</v>
       </c>
       <c r="B146">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -8217,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -8225,7 +8495,7 @@
         <v>153</v>
       </c>
       <c r="B147">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -8243,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>252</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -8251,7 +8521,7 @@
         <v>154</v>
       </c>
       <c r="B148">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -8269,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -8277,7 +8547,7 @@
         <v>155</v>
       </c>
       <c r="B149">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -8303,7 +8573,7 @@
         <v>156</v>
       </c>
       <c r="B150">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -8321,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>252</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -8329,7 +8599,7 @@
         <v>157</v>
       </c>
       <c r="B151">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -8347,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -8355,7 +8625,7 @@
         <v>158</v>
       </c>
       <c r="B152">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -8373,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -8381,7 +8651,7 @@
         <v>159</v>
       </c>
       <c r="B153">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -8399,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>402</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -8407,7 +8677,7 @@
         <v>160</v>
       </c>
       <c r="B154">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -8425,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -8433,7 +8703,7 @@
         <v>161</v>
       </c>
       <c r="B155">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -8459,7 +8729,7 @@
         <v>162</v>
       </c>
       <c r="B156">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -8477,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -8485,7 +8755,7 @@
         <v>163</v>
       </c>
       <c r="B157">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -8503,7 +8773,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -8511,7 +8781,7 @@
         <v>164</v>
       </c>
       <c r="B158">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -8529,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -8537,7 +8807,7 @@
         <v>165</v>
       </c>
       <c r="B159">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -8555,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>101</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -8563,7 +8833,7 @@
         <v>166</v>
       </c>
       <c r="B160">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -8581,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -8589,7 +8859,7 @@
         <v>167</v>
       </c>
       <c r="B161">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -8607,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -8615,7 +8885,7 @@
         <v>168</v>
       </c>
       <c r="B162">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -8633,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>6</v>
+        <v>638</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -8641,7 +8911,7 @@
         <v>169</v>
       </c>
       <c r="B163">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -8659,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -8667,7 +8937,7 @@
         <v>170</v>
       </c>
       <c r="B164">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -8685,7 +8955,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>70</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -8693,7 +8963,7 @@
         <v>171</v>
       </c>
       <c r="B165">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -8711,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -8719,7 +8989,7 @@
         <v>172</v>
       </c>
       <c r="B166">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -8737,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>139</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -8745,7 +9015,7 @@
         <v>173</v>
       </c>
       <c r="B167">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -8763,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -8771,7 +9041,7 @@
         <v>174</v>
       </c>
       <c r="B168">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -8789,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -8797,7 +9067,7 @@
         <v>175</v>
       </c>
       <c r="B169">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -8815,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>541</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -8823,7 +9093,7 @@
         <v>176</v>
       </c>
       <c r="B170">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -8841,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>4</v>
+        <v>110</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -8849,7 +9119,7 @@
         <v>177</v>
       </c>
       <c r="B171">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -8875,7 +9145,7 @@
         <v>178</v>
       </c>
       <c r="B172">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -8893,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -8901,7 +9171,7 @@
         <v>179</v>
       </c>
       <c r="B173">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -8919,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -8927,7 +9197,7 @@
         <v>180</v>
       </c>
       <c r="B174">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -8945,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -8953,7 +9223,7 @@
         <v>181</v>
       </c>
       <c r="B175">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -8971,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -8979,7 +9249,7 @@
         <v>182</v>
       </c>
       <c r="B176">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -8997,7 +9267,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -9005,7 +9275,7 @@
         <v>183</v>
       </c>
       <c r="B177">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -9023,15 +9293,16 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="1" t="s">
-        <v>184</v>
+      <c r="A178" s="1">
+        <f/>
+        <v>0</v>
       </c>
       <c r="B178">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -9049,15 +9320,15 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B179">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -9075,15 +9346,15 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B180">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -9101,15 +9372,15 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B181">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -9127,15 +9398,15 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B182">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -9153,15 +9424,15 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B183">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -9179,15 +9450,15 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B184">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -9205,42 +9476,41 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B185">
+        <v>0.001388888888888889</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185" t="b">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B185">
-        <v>0.001336898395721925</v>
-      </c>
-      <c r="C185">
-        <v>1</v>
-      </c>
-      <c r="D185">
-        <v>1</v>
-      </c>
-      <c r="E185">
-        <v>1</v>
-      </c>
-      <c r="F185">
-        <v>0</v>
-      </c>
-      <c r="G185" t="b">
-        <v>0</v>
-      </c>
-      <c r="H185">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" s="1">
-        <f/>
-        <v>0</v>
-      </c>
       <c r="B186">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -9258,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -9266,7 +9536,7 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -9284,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -9292,7 +9562,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -9318,7 +9588,7 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -9336,7 +9606,7 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>7</v>
+        <v>279</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -9344,7 +9614,7 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -9362,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -9370,7 +9640,7 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -9388,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -9396,7 +9666,7 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -9414,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -9422,7 +9692,7 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -9448,7 +9718,7 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -9466,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -9474,7 +9744,7 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -9492,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -9500,7 +9770,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -9518,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -9526,7 +9796,7 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -9552,7 +9822,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -9570,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -9578,7 +9848,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -9596,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -9604,7 +9874,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -9622,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>6</v>
+        <v>612</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -9630,7 +9900,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -9648,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -9656,7 +9926,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -9674,7 +9944,7 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -9682,7 +9952,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -9708,7 +9978,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -9726,41 +9996,41 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B205">
+        <v>0.001388888888888889</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205" t="b">
+        <v>0</v>
+      </c>
+      <c r="H205">
         <v>8</v>
-      </c>
-      <c r="B205">
-        <v>0.001336898395721925</v>
-      </c>
-      <c r="C205">
-        <v>1</v>
-      </c>
-      <c r="D205">
-        <v>1</v>
-      </c>
-      <c r="E205">
-        <v>1</v>
-      </c>
-      <c r="F205">
-        <v>0</v>
-      </c>
-      <c r="G205" t="b">
-        <v>0</v>
-      </c>
-      <c r="H205">
-        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="1" t="s">
-        <v>210</v>
+        <v>8</v>
       </c>
       <c r="B206">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -9778,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -9786,7 +10056,7 @@
         <v>211</v>
       </c>
       <c r="B207">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -9804,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -9812,7 +10082,7 @@
         <v>212</v>
       </c>
       <c r="B208">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -9830,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="H208">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -9838,7 +10108,7 @@
         <v>213</v>
       </c>
       <c r="B209">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -9856,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -9864,7 +10134,7 @@
         <v>214</v>
       </c>
       <c r="B210">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -9882,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -9890,7 +10160,7 @@
         <v>215</v>
       </c>
       <c r="B211">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -9908,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <v>61</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -9916,7 +10186,7 @@
         <v>216</v>
       </c>
       <c r="B212">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -9934,7 +10204,7 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -9942,7 +10212,7 @@
         <v>217</v>
       </c>
       <c r="B213">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -9960,7 +10230,7 @@
         <v>0</v>
       </c>
       <c r="H213">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -9968,7 +10238,7 @@
         <v>218</v>
       </c>
       <c r="B214">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -9986,7 +10256,7 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -9994,7 +10264,7 @@
         <v>219</v>
       </c>
       <c r="B215">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -10012,7 +10282,7 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -10020,7 +10290,7 @@
         <v>220</v>
       </c>
       <c r="B216">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -10038,7 +10308,7 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -10046,7 +10316,7 @@
         <v>221</v>
       </c>
       <c r="B217">
-        <v>0.001336898395721925</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -10064,7 +10334,241 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <v>21</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B218">
+        <v>0.001388888888888889</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218" t="b">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B219">
+        <v>0.001388888888888889</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219" t="b">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B220">
+        <v>0.001388888888888889</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220" t="b">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B221">
+        <v>0.001388888888888889</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221" t="b">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B222">
+        <v>0.001388888888888889</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222" t="b">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B223">
+        <v>0.001388888888888889</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223" t="b">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B224">
+        <v>0.001388888888888889</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224" t="b">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B225">
+        <v>0.001388888888888889</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225" t="b">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B226">
+        <v>0.001388888888888889</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226" t="b">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
